--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakim\Documents\MEGA\03. Vida Académica\03. Mestrado Ciencias Computadores\2 Ano\Semestre 2\DataWarehouses\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2129AF62-BD7D-4557-8326-291C902F388C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008340C4-A55C-400C-A4E5-44C5DF46A987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,11 +50,41 @@
 </connections>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>THIS EXCEL CONNECTS TO A MYSQL DATABASE WITH THE FOLLOWING PARAMETERS:</t>
+  </si>
+  <si>
+    <t>host:</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>user:</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>password:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -77,12 +107,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,14 +488,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="H5:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="8:15" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="8:15" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="8:15" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="H8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="8:15" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H6:O6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
